--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6E553-3ADC-414A-BD0C-017049736FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5A2E2-08B3-4147-9805-59D8D9E666AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5A2E2-08B3-4147-9805-59D8D9E666AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38C8C6-1A54-4DE3-B325-36A40B4C1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38C8C6-1A54-4DE3-B325-36A40B4C1BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C02B4B1-C073-4993-8FD4-C36F70D1B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C02B4B1-C073-4993-8FD4-C36F70D1B619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E96FB-E03B-49DF-8D79-83911C1478AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E96FB-E03B-49DF-8D79-83911C1478AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5184B62-E7F2-4096-8D08-2709C67562B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5184B62-E7F2-4096-8D08-2709C67562B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98274DA9-A55F-46E2-A10F-8A3F62395810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98274DA9-A55F-46E2-A10F-8A3F62395810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26831DAE-413F-4899-B592-F1E9D375E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26831DAE-413F-4899-B592-F1E9D375E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ADBF8-A985-49B5-8DDF-824F8EF86660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ADBF8-A985-49B5-8DDF-824F8EF86660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA55230-6A04-46E3-A3E6-DCBBA164D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA55230-6A04-46E3-A3E6-DCBBA164D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2853E0A-56E7-45D1-AE43-EDAB9A3E10C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2853E0A-56E7-45D1-AE43-EDAB9A3E10C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02868871-A8B0-4C46-91C7-FE2B9352D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02868871-A8B0-4C46-91C7-FE2B9352D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178797D-4257-4D52-B2BE-B278D387F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178797D-4257-4D52-B2BE-B278D387F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187B9E8-1F1B-4F58-B1FE-6EF75ABD4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4187B9E8-1F1B-4F58-B1FE-6EF75ABD4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E143557-F4A3-4CC6-8B49-FA788C930EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_ZAF/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E143557-F4A3-4CC6-8B49-FA788C930EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D7AEEA-4D6B-4A3C-84B9-29845B4D5277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
